--- a/ExecutableIrt/bin/Debug/IRT_Input.xlsx
+++ b/ExecutableIrt/bin/Debug/IRT_Input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\IRT2\IRT\ExecutableIrt\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\IRT2\Item-Response-Theory-Project\ExecutableIrt\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="30" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Scale 1</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>Item 6</t>
+  </si>
+  <si>
+    <t># Questions Before CAT Begins</t>
+  </si>
+  <si>
+    <t>Mistake Probability</t>
+  </si>
+  <si>
+    <t>Use Discrimination Parameter for Estimation</t>
+  </si>
+  <si>
+    <t>Model Type</t>
+  </si>
+  <si>
+    <t>Bayesian</t>
+  </si>
+  <si>
+    <t>Bayesian Variance (Ignored if MLE)</t>
   </si>
 </sst>
 </file>
@@ -476,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,10 +654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +755,46 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExecutableIrt/bin/Debug/IRT_Input.xlsx
+++ b/ExecutableIrt/bin/Debug/IRT_Input.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="90" yWindow="135" windowWidth="12300" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
-    <sheet name="Inputs" sheetId="4" r:id="rId2"/>
-    <sheet name="Settings" sheetId="5" r:id="rId3"/>
-    <sheet name="Scale Parameters" sheetId="6" r:id="rId4"/>
+    <sheet name="First Person Detailed Output" sheetId="7" r:id="rId2"/>
+    <sheet name="Inputs" sheetId="4" r:id="rId3"/>
+    <sheet name="Settings" sheetId="5" r:id="rId4"/>
+    <sheet name="Scale Parameters" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="70">
   <si>
     <t>Scale 1</t>
   </si>
@@ -78,47 +79,167 @@
     <t>Item Orientation (reverse or normal)</t>
   </si>
   <si>
-    <t>Item 1</t>
-  </si>
-  <si>
-    <t>Item 2</t>
-  </si>
-  <si>
-    <t>Item 3</t>
-  </si>
-  <si>
-    <t>Item 4</t>
-  </si>
-  <si>
-    <t>Item 5</t>
-  </si>
-  <si>
-    <t>Item 6</t>
-  </si>
-  <si>
     <t># Questions Before CAT Begins</t>
   </si>
   <si>
-    <t>Mistake Probability</t>
-  </si>
-  <si>
     <t>Use Discrimination Parameter for Estimation</t>
   </si>
   <si>
-    <t>Model Type</t>
-  </si>
-  <si>
-    <t>Bayesian</t>
-  </si>
-  <si>
-    <t>Bayesian Variance (Ignored if MLE)</t>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>Prevent</t>
+  </si>
+  <si>
+    <t>Bohemian</t>
+  </si>
+  <si>
+    <t>Endeavor</t>
+  </si>
+  <si>
+    <t>Placate</t>
+  </si>
+  <si>
+    <t>Conundrum</t>
+  </si>
+  <si>
+    <t>Ossify</t>
+  </si>
+  <si>
+    <t>Ambiguous</t>
+  </si>
+  <si>
+    <t>Inert</t>
+  </si>
+  <si>
+    <t>Ominous</t>
+  </si>
+  <si>
+    <t>Pliable</t>
+  </si>
+  <si>
+    <t>Verbose</t>
+  </si>
+  <si>
+    <t>Encumber</t>
+  </si>
+  <si>
+    <t>Innocuous</t>
+  </si>
+  <si>
+    <t>Abscond</t>
+  </si>
+  <si>
+    <t>Obdurate</t>
+  </si>
+  <si>
+    <t>Rarefy</t>
+  </si>
+  <si>
+    <t>Slur</t>
+  </si>
+  <si>
+    <t>Parlance</t>
+  </si>
+  <si>
+    <t>Obviate</t>
+  </si>
+  <si>
+    <t>Assiduous</t>
+  </si>
+  <si>
+    <t>Cacophonous</t>
+  </si>
+  <si>
+    <t>Efface</t>
+  </si>
+  <si>
+    <t>Countenance</t>
+  </si>
+  <si>
+    <t>Perfidious</t>
+  </si>
+  <si>
+    <t>Banal</t>
+  </si>
+  <si>
+    <t>Convivial</t>
+  </si>
+  <si>
+    <t>Accede</t>
+  </si>
+  <si>
+    <t>Ubiquitous</t>
+  </si>
+  <si>
+    <t>Fortuity</t>
+  </si>
+  <si>
+    <t>Allusion</t>
+  </si>
+  <si>
+    <t>Dissimulated</t>
+  </si>
+  <si>
+    <t>Gib</t>
+  </si>
+  <si>
+    <t>Prevaricate</t>
+  </si>
+  <si>
+    <t>Ancillary</t>
+  </si>
+  <si>
+    <t>Ambivalent</t>
+  </si>
+  <si>
+    <t>Rapacious</t>
+  </si>
+  <si>
+    <t>QuestionLabel</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Mistake Probability (False or 0 if none)</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,13 +268,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +328,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,11 +663,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -513,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.39394838362415879</v>
+        <v>-1.7967784786758649</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +696,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
+        <v>65535</v>
+      </c>
+      <c r="E2">
+        <v>5.0730784368793885E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.28</v>
+      </c>
+      <c r="G2">
+        <v>1.69</v>
+      </c>
+      <c r="H2">
+        <v>0.17</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>65535</v>
+      </c>
+      <c r="E3">
+        <v>0.75773139022015967</v>
+      </c>
+      <c r="F3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.66</v>
+      </c>
+      <c r="H3">
+        <v>0.24</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.22220048310778762</v>
+      </c>
+      <c r="D4">
+        <v>0.8608168797375324</v>
+      </c>
+      <c r="E4">
+        <v>0.36026954884647927</v>
+      </c>
+      <c r="F4">
+        <v>2.16</v>
+      </c>
+      <c r="G4">
+        <v>0.13</v>
+      </c>
+      <c r="H4">
+        <v>0.19</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-3.0000015697437301</v>
+      </c>
+      <c r="D5">
+        <v>19.564287437949904</v>
+      </c>
+      <c r="E5">
+        <v>0.56308862479668653</v>
+      </c>
+      <c r="F5">
+        <v>1.67</v>
+      </c>
+      <c r="G5">
+        <v>-0.17</v>
+      </c>
+      <c r="H5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-6.0000028942167969</v>
+      </c>
+      <c r="D6">
+        <v>875.1347207765624</v>
+      </c>
+      <c r="E6">
+        <v>5.7331917178144193E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.45</v>
+      </c>
+      <c r="G6">
+        <v>-0.53</v>
+      </c>
+      <c r="H6">
+        <v>0.19</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-6.0000016159343001</v>
+      </c>
+      <c r="D7">
+        <v>873.59256561653035</v>
+      </c>
+      <c r="E7">
+        <v>4.6091342610576246E-9</v>
+      </c>
+      <c r="F7">
+        <v>1.7</v>
+      </c>
+      <c r="G7">
+        <v>0.33</v>
+      </c>
+      <c r="H7">
+        <v>0.22</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-1.7967784786758649</v>
+      </c>
+      <c r="D8">
+        <v>1.7783950060649596</v>
+      </c>
+      <c r="E8">
+        <v>4.6016252388735492E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.39</v>
+      </c>
+      <c r="G8">
+        <v>-3.37</v>
+      </c>
+      <c r="H8">
+        <v>0.19</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,14 +954,14 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -554,110 +973,361 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AI2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" s="9">
+        <v>1</v>
+      </c>
+      <c r="U3" s="9">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1</v>
+      </c>
+      <c r="X3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,11 +1360,11 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
@@ -741,7 +1411,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="6">
@@ -757,23 +1427,23 @@
     </row>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.02</v>
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
@@ -781,18 +1451,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
@@ -800,318 +1462,844 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B1" sqref="B1:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1.28</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1.69</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2.16</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1.67</v>
+      </c>
+      <c r="D5" s="13">
+        <v>-0.17</v>
+      </c>
+      <c r="E5" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1.45</v>
+      </c>
+      <c r="D6" s="13">
+        <v>-0.53</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="D8" s="11">
+        <v>-3.37</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="D9" s="11">
+        <v>-3.27</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="D10" s="11">
+        <v>-2.78</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="12">
+        <v>-1.54</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1.88</v>
+      </c>
+      <c r="D12" s="11">
+        <v>-1.53</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="D13" s="11">
+        <v>-1.27</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2.16</v>
+      </c>
+      <c r="D14" s="12">
+        <v>-1.25</v>
+      </c>
+      <c r="E14" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1.84</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-1.02</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-1.01</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.98</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.87</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.78</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-0.46</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-0.39</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1.61</v>
+      </c>
+      <c r="D23" s="16">
+        <v>-1.01</v>
+      </c>
+      <c r="E23" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-0.27</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-0.25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-0.23</v>
+      </c>
+      <c r="E26" s="5">
         <v>0.1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="F26" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.13</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="D34" s="10">
+        <v>-4.22</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="E35" s="1">
         <v>0.1</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
